--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xihajun/Documents/time-management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1275B9B-63AF-2943-A21A-231BD5F4D39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76475B-DDEE-B240-AF5E-2C9063C0EE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{C968AA37-CF09-B845-8BAC-49C46AF46C6F}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C24" activeCellId="1" sqref="I19 C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xihajun/Documents/time-management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76475B-DDEE-B240-AF5E-2C9063C0EE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ABBEEF-2D1D-D742-9DBB-EBCCCB6E4DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{C968AA37-CF09-B845-8BAC-49C46AF46C6F}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" activeCellId="1" sqref="I19 C24"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xihajun/Documents/time-management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ABBEEF-2D1D-D742-9DBB-EBCCCB6E4DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9083B43D-4C93-C647-843F-E859A7DFA64D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{C968AA37-CF09-B845-8BAC-49C46AF46C6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>DDL</t>
   </si>
@@ -57,9 +57,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>where do I found</t>
-  </si>
-  <si>
     <t>https://www.jobs.ac.uk/job/BVF859/intelligent-systems-analyst-ktp</t>
   </si>
   <si>
@@ -100,16 +97,54 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>Job application: Research Assistant - KCL</t>
+  </si>
+  <si>
+    <t>https://www.jobs.ac.uk/job/BVF078/research-assistant</t>
+  </si>
+  <si>
+    <t>developing probabilistic graphical models and/or other types of explainable and interpretable machine learning approaches. </t>
+  </si>
+  <si>
+    <t>Job application: Data Scientist - Manchester</t>
+  </si>
+  <si>
+    <t>https://www.jobs.ac.uk/job/BVI746/data-scientist</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>27k-31k</t>
+  </si>
+  <si>
+    <t>Job application: Data Scientist - Reading Univ</t>
+  </si>
+  <si>
+    <t>30k-35k</t>
+  </si>
+  <si>
+    <t>https://www.jobs.ac.uk/job/BVL004/data-scientist-ktp-associate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,14 +167,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCF218C-943C-9C47-A62D-DD8A8F6A2C83}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -500,7 +538,7 @@
         <v>43758</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -512,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -523,7 +561,7 @@
         <v>43754</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -543,7 +581,7 @@
         <v>43749</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -555,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -566,7 +604,7 @@
         <v>43753</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -575,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -589,7 +627,7 @@
         <v>43751</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -598,16 +636,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -615,19 +653,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43757</v>
+        <v>43751</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -635,19 +679,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43758</v>
+        <v>43755</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -655,27 +705,33 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43759</v>
+        <v>43758</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43760</v>
+        <v>43761</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -687,31 +743,14 @@
         <v>4</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43761</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -722,10 +761,11 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{D8CF3252-DD53-4843-B172-EF09858FDCB1}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{1E7EA4F1-F01A-6A48-9400-B879829C1702}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xihajun/Documents/time-management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9083B43D-4C93-C647-843F-E859A7DFA64D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3A3653-A176-9E4A-92E9-FFC77019509F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{C968AA37-CF09-B845-8BAC-49C46AF46C6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>DDL</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>https://www.jobs.ac.uk/job/BVL004/data-scientist-ktp-associate</t>
+  </si>
+  <si>
+    <t>Implementation of CNN for texture analysis</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>my personal task</t>
+  </si>
+  <si>
+    <t>Interview: Business Analyst/Data Governance Analyst</t>
+  </si>
+  <si>
+    <t>Online assessment</t>
+  </si>
+  <si>
+    <t>very important</t>
+  </si>
+  <si>
+    <t>29k-34k</t>
+  </si>
+  <si>
+    <t>Interview: Oxford research assistant</t>
   </si>
 </sst>
 </file>
@@ -492,12 +516,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCF218C-943C-9C47-A62D-DD8A8F6A2C83}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -535,10 +561,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43758</v>
+        <v>43749</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -547,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -558,19 +584,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43754</v>
+        <v>43751</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -578,22 +613,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43749</v>
+        <v>43751</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
       <c r="F4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -624,28 +662,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43751</v>
+        <v>43754</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -653,25 +682,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43751</v>
+        <v>43755</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
       <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -679,25 +708,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43755</v>
+        <v>43758</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -726,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -750,20 +776,97 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+    <sortCondition ref="A1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{D8CF3252-DD53-4843-B172-EF09858FDCB1}"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{D8CF3252-DD53-4843-B172-EF09858FDCB1}"/>
     <hyperlink ref="G9" r:id="rId2" xr:uid="{1E7EA4F1-F01A-6A48-9400-B879829C1702}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xihajun/Documents/time-management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3A3653-A176-9E4A-92E9-FFC77019509F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C317522-0843-2144-A2E2-58BA55C65D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{C968AA37-CF09-B845-8BAC-49C46AF46C6F}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
